--- a/bots/crawl_ch/output/toilet_coop_2022-08-06.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-06.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -716,40 +716,40 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6691348</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60ST</t>
+          <t>40ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -784,45 +784,45 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6691348</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>Super Soft Aloe Vera feucht FSC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-aloe-vera-feucht-fsc/p/6691348</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40ST</t>
+          <t>60ST</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>Super Soft Aloe Vera feucht FSC 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -933,36 +933,36 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -971,71 +971,71 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Tempo feuchte Limited Edition</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1044,42 +1044,42 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.98/1Rol</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1743,50 +1743,50 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1806,60 +1806,60 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1879,17 +1879,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-06 07:01:09</t>
+          <t>2022-08-06 20:57:37</t>
         </is>
       </c>
     </row>
